--- a/excel/data_excel/Armor.xlsx
+++ b/excel/data_excel/Armor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE0FAB-A1A4-4845-943C-C9355B81A5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8A2C4-FFB6-4A70-933C-224EF3457C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$FJ$3</definedName>
     <definedName name="Armor" localSheetId="0">Sheet1!$B$1:$FJ$206</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -196,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="759">
   <si>
     <t>name</t>
   </si>
@@ -2476,6 +2484,10 @@
   </si>
   <si>
     <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter's Guise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2865,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FJ206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -48436,7 +48448,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="C169" t="s">
         <v>713</v>

--- a/excel/data_excel/Armor.xlsx
+++ b/excel/data_excel/Armor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8A2C4-FFB6-4A70-933C-224EF3457C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D1645-B762-4CF9-BB89-5BBB833CC682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,8 +13,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$FJ$3</definedName>
-    <definedName name="Armor" localSheetId="0">Sheet1!$B$1:$FJ$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$FJ$206</definedName>
+    <definedName name="Armor" localSheetId="0">Sheet1!$B$1:$FJ$3</definedName>
+    <definedName name="Armor_1" localSheetId="0">Sheet1!$C$4:$FJ$206</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -200,11 +201,181 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{A402AB02-C8C1-421D-9C08-BC2D8D308D04}" name="Armor1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\minieditor\project\DiabloII_data\excel\data\Armor.txt">
+      <textFields count="164">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="761">
   <si>
     <t>name</t>
   </si>
@@ -2487,7 +2658,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hunter's Guise</t>
+    <t>mindam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxdam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2551,6 +2730,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Armor_1" connectionId="2" xr16:uid="{55615EB5-978D-4945-AA50-4D7FB8625B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Armor" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2877,111 +3060,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FJ206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="15" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="15" bestFit="1" customWidth="1"/>
-    <col min="87" max="88" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="94" max="96" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="99" max="101" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="104" max="106" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="15" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="114" max="116" width="15" bestFit="1" customWidth="1"/>
-    <col min="117" max="118" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="119" max="121" width="15" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="124" max="126" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="129" max="131" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="15" bestFit="1" customWidth="1"/>
-    <col min="137" max="138" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="139" max="141" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="144" max="146" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="147" max="148" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="149" max="151" width="15" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="154" max="156" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="160" max="161" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="94" max="96" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="99" max="101" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="106" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="121" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="124" max="126" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="131" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="139" max="141" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="146" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="151" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="156" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:166" x14ac:dyDescent="0.3">
@@ -3975,10 +4159,10 @@
         <v>160</v>
       </c>
       <c r="FH2" t="s">
-        <v>63</v>
+        <v>758</v>
       </c>
       <c r="FI2" t="s">
-        <v>64</v>
+        <v>759</v>
       </c>
       <c r="FJ2" t="s">
         <v>161</v>
@@ -4478,7 +4662,7 @@
         <v>751</v>
       </c>
       <c r="FI3" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="FJ3" t="s">
         <v>751</v>
@@ -48448,7 +48632,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>758</v>
+        <v>713</v>
       </c>
       <c r="C169" t="s">
         <v>713</v>
@@ -58072,7 +58256,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:FJ3" xr:uid="{08EF5975-92A3-45FE-A45A-B443672244D9}"/>
+  <autoFilter ref="A3:FJ206" xr:uid="{08EF5975-92A3-45FE-A45A-B443672244D9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/data_excel/Armor.xlsx
+++ b/excel/data_excel/Armor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D1645-B762-4CF9-BB89-5BBB833CC682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C11F9-C101-40F7-8B1B-4FFAABADD265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3061,7 +3061,7 @@
   <dimension ref="A1:FJ206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/excel/data_excel/Armor.xlsx
+++ b/excel/data_excel/Armor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC49C92B-AE00-4649-A0DD-304C22298BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="11760"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,20 +18,12 @@
     <definedName name="Armor_1" localSheetId="0">Sheet1!$C$4:$FJ$206</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Armor" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Armor" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65000" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data\Armor.txt">
       <textFields count="164">
         <textField/>
@@ -200,7 +193,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Armor1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Armor1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\minieditor\project\DiabloII_data\excel\data\Armor.txt">
       <textFields count="164">
         <textField/>
@@ -374,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="832">
   <si>
     <t>name</t>
   </si>
@@ -2715,9 +2708,6 @@
     <t>物品的最高价格</t>
   </si>
   <si>
-    <t>无用参数</t>
-  </si>
-  <si>
     <t>控制速度的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2946,14 +2936,114 @@
   </si>
   <si>
     <t>是否能被重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用参数J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用参数S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无用参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无用参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AC</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无用参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无用参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edata_version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2981,6 +3071,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3002,15 +3099,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3024,11 +3133,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Armor_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Armor_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Armor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Armor" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3074,7 +3183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3107,9 +3216,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3142,6 +3268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3317,115 +3460,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FJ206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="45" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="45" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="11" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="15" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="84" max="86" width="15" bestFit="1" customWidth="1"/>
-    <col min="87" max="88" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="94" max="96" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="99" max="101" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="106" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="94" max="96" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="99" max="101" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="104" max="106" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="109" max="111" width="15" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="114" max="116" width="15" bestFit="1" customWidth="1"/>
-    <col min="117" max="118" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="119" max="121" width="15" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="124" max="126" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="129" max="131" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="124" max="126" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="129" max="131" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="134" max="136" width="15" bestFit="1" customWidth="1"/>
-    <col min="137" max="138" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="139" max="141" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="144" max="146" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="147" max="148" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="139" max="141" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="144" max="146" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="149" max="151" width="15" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="154" max="156" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="160" max="161" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="154" max="156" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>749</v>
       </c>
@@ -3640,7 +3785,7 @@
         <v>68</v>
       </c>
       <c r="BT1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BU1" t="s">
         <v>69</v>
@@ -3925,7 +4070,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:166" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:166" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>751</v>
       </c>
@@ -3953,194 +4098,194 @@
       <c r="I2" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q2" t="s">
         <v>771</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>773</v>
       </c>
-      <c r="Q2" t="s">
-        <v>772</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" t="s">
         <v>775</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>776</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" t="s">
         <v>778</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>766</v>
+      <c r="AC2" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="AD2" t="s">
         <v>27</v>
       </c>
       <c r="AE2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AF2" t="s">
         <v>783</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>784</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>785</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>786</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>787</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
+        <v>790</v>
+      </c>
+      <c r="AL2" t="s">
         <v>788</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
+        <v>789</v>
+      </c>
+      <c r="AN2" t="s">
         <v>791</v>
       </c>
-      <c r="AL2" t="s">
-        <v>789</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>790</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>792</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>793</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>794</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>795</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>796</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>797</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>798</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>799</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>800</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>801</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>802</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>803</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>804</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>805</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>806</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>807</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="BG2" t="s">
         <v>808</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>809</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>810</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>811</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>812</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>813</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>814</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>815</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>816</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>817</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>818</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" t="s">
         <v>820</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>821</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>822</v>
       </c>
       <c r="BU2" t="s">
         <v>69</v>
@@ -4410,10 +4555,10 @@
         <v>157</v>
       </c>
       <c r="FF2" t="s">
+        <v>822</v>
+      </c>
+      <c r="FG2" t="s">
         <v>823</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>824</v>
       </c>
       <c r="FH2" t="s">
         <v>757</v>
@@ -4422,10 +4567,10 @@
         <v>758</v>
       </c>
       <c r="FJ2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>754</v>
       </c>
@@ -4436,7 +4581,7 @@
         <v>753</v>
       </c>
       <c r="D3" t="s">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="E3" t="s">
         <v>750</v>
@@ -4925,7 +5070,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5209,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5490,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5771,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6055,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6363,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6647,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6907,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7194,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7493,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7792,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8091,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8381,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -8665,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -8976,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -9293,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -9610,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -9912,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -10202,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -10498,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -10791,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -11093,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -11386,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -11673,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -11969,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -12283,7 +12428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -12594,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -12899,7 +13044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -13186,7 +13331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -13467,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -13748,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -14032,7 +14177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -14340,7 +14485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -14648,7 +14793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -14932,7 +15077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -15216,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -15503,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -15814,7 +15959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -16128,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -16409,7 +16554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -16690,7 +16835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -16974,7 +17119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -17276,7 +17421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -17581,7 +17726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -17859,7 +18004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -18140,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -18418,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -18669,7 +18814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -18926,7 +19071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -19183,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -19440,7 +19585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -19691,7 +19836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -19948,7 +20093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -20199,7 +20344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -20468,7 +20613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -20737,7 +20882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -21006,7 +21151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -21281,7 +21426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -21550,7 +21695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -21819,7 +21964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -22088,7 +22233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
@@ -22360,7 +22505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -22629,7 +22774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
@@ -22898,7 +23043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -23167,7 +23312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
@@ -23436,7 +23581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
@@ -23705,7 +23850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -23980,7 +24125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
@@ -24249,7 +24394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -24509,7 +24654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -24769,7 +24914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>71</v>
       </c>
@@ -25029,7 +25174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>72</v>
       </c>
@@ -25289,7 +25434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
@@ -25549,7 +25694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
@@ -25809,7 +25954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
@@ -26060,7 +26205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -26311,7 +26456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
@@ -26562,7 +26707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
@@ -26813,7 +26958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -27064,7 +27209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>80</v>
       </c>
@@ -27318,7 +27463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>81</v>
       </c>
@@ -27572,7 +27717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>82</v>
       </c>
@@ -27826,7 +27971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
@@ -28080,7 +28225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>84</v>
       </c>
@@ -28334,7 +28479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -28585,7 +28730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
@@ -28836,7 +28981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>87</v>
       </c>
@@ -29087,7 +29232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
@@ -29338,7 +29483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
@@ -29589,7 +29734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -29846,7 +29991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
@@ -30106,7 +30251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -30366,7 +30511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>93</v>
       </c>
@@ -30377,7 +30522,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>94</v>
       </c>
@@ -30628,7 +30773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
@@ -30879,7 +31024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
@@ -31130,7 +31275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
@@ -31381,7 +31526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -31632,7 +31777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -31883,7 +32028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -32134,7 +32279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
@@ -32385,7 +32530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -32636,7 +32781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -32887,7 +33032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
@@ -33144,7 +33289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -33401,7 +33546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
@@ -33658,7 +33803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
@@ -33915,7 +34060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
@@ -34172,7 +34317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -34426,7 +34571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
@@ -34680,7 +34825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
@@ -34934,7 +35079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
@@ -35188,7 +35333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -35442,7 +35587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -35690,7 +35835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -35944,7 +36089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -36198,7 +36343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -36452,7 +36597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -36703,7 +36848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -36954,7 +37099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -37211,7 +37356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
@@ -37468,7 +37613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
@@ -37722,7 +37867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
@@ -37973,7 +38118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
@@ -38224,7 +38369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
@@ -38493,7 +38638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
@@ -38762,7 +38907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
@@ -39031,7 +39176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
@@ -39300,7 +39445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
@@ -39569,7 +39714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -39838,7 +39983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
@@ -40107,7 +40252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
@@ -40376,7 +40521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
@@ -40645,7 +40790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
@@ -40914,7 +41059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>135</v>
       </c>
@@ -41183,7 +41328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>136</v>
       </c>
@@ -41452,7 +41597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>137</v>
       </c>
@@ -41721,7 +41866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138</v>
       </c>
@@ -41996,7 +42141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139</v>
       </c>
@@ -42265,7 +42410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140</v>
       </c>
@@ -42525,7 +42670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>141</v>
       </c>
@@ -42785,7 +42930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>142</v>
       </c>
@@ -43045,7 +43190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>143</v>
       </c>
@@ -43305,7 +43450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>144</v>
       </c>
@@ -43565,7 +43710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>145</v>
       </c>
@@ -43825,7 +43970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>146</v>
       </c>
@@ -44076,7 +44221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>147</v>
       </c>
@@ -44327,7 +44472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>148</v>
       </c>
@@ -44578,7 +44723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>149</v>
       </c>
@@ -44829,7 +44974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>150</v>
       </c>
@@ -45080,7 +45225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>151</v>
       </c>
@@ -45334,7 +45479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>152</v>
       </c>
@@ -45588,7 +45733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>153</v>
       </c>
@@ -45842,7 +45987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>154</v>
       </c>
@@ -46096,7 +46241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>155</v>
       </c>
@@ -46350,7 +46495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>156</v>
       </c>
@@ -46601,7 +46746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>157</v>
       </c>
@@ -46852,7 +46997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>158</v>
       </c>
@@ -47103,7 +47248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>159</v>
       </c>
@@ -47354,7 +47499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>160</v>
       </c>
@@ -47605,7 +47750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>161</v>
       </c>
@@ -47862,7 +48007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>162</v>
       </c>
@@ -48122,7 +48267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>163</v>
       </c>
@@ -48382,7 +48527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>164</v>
       </c>
@@ -48633,7 +48778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>165</v>
       </c>
@@ -48884,7 +49029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>166</v>
       </c>
@@ -49135,7 +49280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>167</v>
       </c>
@@ -49386,7 +49531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>168</v>
       </c>
@@ -49637,7 +49782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>169</v>
       </c>
@@ -49888,7 +50033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>170</v>
       </c>
@@ -50139,7 +50284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>171</v>
       </c>
@@ -50390,7 +50535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>172</v>
       </c>
@@ -50641,7 +50786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>173</v>
       </c>
@@ -50892,7 +51037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>174</v>
       </c>
@@ -51149,7 +51294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>175</v>
       </c>
@@ -51406,7 +51551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>176</v>
       </c>
@@ -51663,7 +51808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>177</v>
       </c>
@@ -51920,7 +52065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>178</v>
       </c>
@@ -52177,7 +52322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>179</v>
       </c>
@@ -52431,7 +52576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>180</v>
       </c>
@@ -52685,7 +52830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>181</v>
       </c>
@@ -52939,7 +53084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>182</v>
       </c>
@@ -53193,7 +53338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>183</v>
       </c>
@@ -53447,7 +53592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>184</v>
       </c>
@@ -53698,7 +53843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>185</v>
       </c>
@@ -53949,7 +54094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>186</v>
       </c>
@@ -54200,7 +54345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
@@ -54451,7 +54596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>188</v>
       </c>
@@ -54702,7 +54847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>189</v>
       </c>
@@ -54953,7 +55098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>190</v>
       </c>
@@ -55204,7 +55349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>191</v>
       </c>
@@ -55455,7 +55600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>192</v>
       </c>
@@ -55706,7 +55851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>193</v>
       </c>
@@ -55957,7 +56102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>194</v>
       </c>
@@ -56214,7 +56359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>195</v>
       </c>
@@ -56471,7 +56616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>196</v>
       </c>
@@ -56728,7 +56873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>197</v>
       </c>
@@ -56985,7 +57130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>198</v>
       </c>
@@ -57242,7 +57387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>199</v>
       </c>
@@ -57496,7 +57641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>200</v>
       </c>
@@ -57750,7 +57895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>201</v>
       </c>
@@ -58004,7 +58149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>202</v>
       </c>
@@ -58258,7 +58403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:166" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>203</v>
       </c>
@@ -58513,20 +58658,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:FJ206"/>
+  <autoFilter ref="A3:FJ206" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:XFD2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58534,12 +58682,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
